--- a/bom/covg_daq_v2_bom.xlsx
+++ b/bom/covg_daq_v2_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/Google Drive/UST/research/covg/pcb_design/kicad/covg_daq_v2/bom/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koer2434/My Drive/UST/research/covg/pcb_design/kicad/covg_daq_v2/bom/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A571CA76-4AF3-1B4E-A756-939D40871364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6349535D-C919-BD40-AEB4-BAEE690F6C62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="-140" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="covg_daq_v2" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">covg_daq_v2!$A$5:$I$583</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2339" uniqueCount="795">
   <si>
     <t>Source:</t>
   </si>
@@ -2416,6 +2416,9 @@
   </si>
   <si>
     <t>U65</t>
+  </si>
+  <si>
+    <t>RC0603FR-07470KL</t>
   </si>
 </sst>
 </file>
@@ -3257,11 +3260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I583"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A237" sqref="A237:I238"/>
+    <sheetView tabSelected="1" topLeftCell="A496" workbookViewId="0">
+      <selection activeCell="G520" sqref="G520"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3332,7 +3334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -3352,7 +3354,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3372,7 +3374,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3392,7 +3394,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3412,7 +3414,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3432,7 +3434,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3452,7 +3454,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3472,7 +3474,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3492,7 +3494,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3512,7 +3514,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3532,7 +3534,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3555,7 +3557,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -3578,7 +3580,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -3601,7 +3603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -3641,7 +3643,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>45</v>
       </c>
@@ -3661,7 +3663,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -3681,7 +3683,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -3701,7 +3703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -3721,7 +3723,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
@@ -3741,7 +3743,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>57</v>
       </c>
@@ -3781,7 +3783,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>58</v>
       </c>
@@ -3801,7 +3803,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -3821,7 +3823,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -3841,7 +3843,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -3861,7 +3863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>63</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -3921,7 +3923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
@@ -3941,7 +3943,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -3961,7 +3963,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3981,7 +3983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>71</v>
       </c>
@@ -4001,7 +4003,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -4021,7 +4023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>73</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>75</v>
       </c>
@@ -4061,7 +4063,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -4081,7 +4083,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>77</v>
       </c>
@@ -4101,7 +4103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -4121,7 +4123,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -4141,7 +4143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>80</v>
       </c>
@@ -4161,7 +4163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>83</v>
       </c>
@@ -4175,7 +4177,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>84</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>85</v>
       </c>
@@ -4215,7 +4217,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>86</v>
       </c>
@@ -4229,7 +4231,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>87</v>
       </c>
@@ -4249,7 +4251,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>88</v>
       </c>
@@ -4269,7 +4271,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>92</v>
       </c>
@@ -4289,7 +4291,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>93</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>96</v>
       </c>
@@ -4329,7 +4331,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>97</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>98</v>
       </c>
@@ -4369,7 +4371,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>99</v>
       </c>
@@ -4389,7 +4391,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>100</v>
       </c>
@@ -4409,7 +4411,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>101</v>
       </c>
@@ -4429,7 +4431,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>102</v>
       </c>
@@ -4449,7 +4451,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>103</v>
       </c>
@@ -4469,7 +4471,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>104</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>105</v>
       </c>
@@ -4509,7 +4511,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>106</v>
       </c>
@@ -4529,7 +4531,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>107</v>
       </c>
@@ -4549,7 +4551,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>108</v>
       </c>
@@ -4569,7 +4571,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>109</v>
       </c>
@@ -4589,7 +4591,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>110</v>
       </c>
@@ -4609,7 +4611,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>111</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>112</v>
       </c>
@@ -4649,7 +4651,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>113</v>
       </c>
@@ -4669,7 +4671,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -4689,7 +4691,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>115</v>
       </c>
@@ -4709,7 +4711,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>116</v>
       </c>
@@ -4729,7 +4731,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>118</v>
       </c>
@@ -4749,7 +4751,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>119</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>120</v>
       </c>
@@ -4789,7 +4791,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>121</v>
       </c>
@@ -4809,7 +4811,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>122</v>
       </c>
@@ -4829,7 +4831,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>123</v>
       </c>
@@ -4849,7 +4851,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>124</v>
       </c>
@@ -4869,7 +4871,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>126</v>
       </c>
@@ -4889,7 +4891,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>127</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>128</v>
       </c>
@@ -4929,7 +4931,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>129</v>
       </c>
@@ -4949,7 +4951,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>130</v>
       </c>
@@ -4969,7 +4971,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>131</v>
       </c>
@@ -4989,7 +4991,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>132</v>
       </c>
@@ -5009,7 +5011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>133</v>
       </c>
@@ -5023,7 +5025,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>134</v>
       </c>
@@ -5043,7 +5045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>136</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>137</v>
       </c>
@@ -5097,7 +5099,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>138</v>
       </c>
@@ -5117,7 +5119,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -5137,7 +5139,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>140</v>
       </c>
@@ -5157,7 +5159,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>141</v>
       </c>
@@ -5177,7 +5179,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>142</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>143</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>144</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>145</v>
       </c>
@@ -5251,7 +5253,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>146</v>
       </c>
@@ -5271,7 +5273,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>147</v>
       </c>
@@ -5285,7 +5287,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>148</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>149</v>
       </c>
@@ -5325,7 +5327,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>150</v>
       </c>
@@ -5345,7 +5347,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>151</v>
       </c>
@@ -5365,7 +5367,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>153</v>
       </c>
@@ -5405,7 +5407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>154</v>
       </c>
@@ -5425,7 +5427,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>155</v>
       </c>
@@ -5439,7 +5441,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>156</v>
       </c>
@@ -5459,7 +5461,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>157</v>
       </c>
@@ -5479,7 +5481,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>158</v>
       </c>
@@ -5493,7 +5495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>159</v>
       </c>
@@ -5513,7 +5515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>160</v>
       </c>
@@ -5533,7 +5535,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>161</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>162</v>
       </c>
@@ -5564,7 +5566,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>164</v>
       </c>
@@ -5584,7 +5586,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>165</v>
       </c>
@@ -5604,7 +5606,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>166</v>
       </c>
@@ -5615,7 +5617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>167</v>
       </c>
@@ -5635,7 +5637,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>168</v>
       </c>
@@ -5655,7 +5657,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>172</v>
       </c>
@@ -5675,7 +5677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>173</v>
       </c>
@@ -5695,7 +5697,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>174</v>
       </c>
@@ -5706,7 +5708,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>175</v>
       </c>
@@ -5717,7 +5719,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>176</v>
       </c>
@@ -5737,7 +5739,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>177</v>
       </c>
@@ -5757,7 +5759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>178</v>
       </c>
@@ -5768,7 +5770,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>179</v>
       </c>
@@ -5788,7 +5790,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>180</v>
       </c>
@@ -5808,7 +5810,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>181</v>
       </c>
@@ -5828,7 +5830,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>182</v>
       </c>
@@ -5848,7 +5850,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>183</v>
       </c>
@@ -5859,7 +5861,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>184</v>
       </c>
@@ -5870,7 +5872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>185</v>
       </c>
@@ -5890,7 +5892,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>186</v>
       </c>
@@ -5910,7 +5912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>187</v>
       </c>
@@ -5921,7 +5923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>188</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>189</v>
       </c>
@@ -5961,7 +5963,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>190</v>
       </c>
@@ -5981,7 +5983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>191</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>192</v>
       </c>
@@ -6012,7 +6014,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>193</v>
       </c>
@@ -6023,7 +6025,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>194</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>195</v>
       </c>
@@ -6063,7 +6065,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>196</v>
       </c>
@@ -6074,7 +6076,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>197</v>
       </c>
@@ -6094,7 +6096,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>198</v>
       </c>
@@ -6114,7 +6116,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>199</v>
       </c>
@@ -6134,7 +6136,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>200</v>
       </c>
@@ -6154,7 +6156,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>201</v>
       </c>
@@ -6165,7 +6167,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>202</v>
       </c>
@@ -6176,7 +6178,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>203</v>
       </c>
@@ -6196,7 +6198,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>204</v>
       </c>
@@ -6216,7 +6218,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>205</v>
       </c>
@@ -6227,7 +6229,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>206</v>
       </c>
@@ -6247,7 +6249,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>207</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>208</v>
       </c>
@@ -6287,7 +6289,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>209</v>
       </c>
@@ -6307,7 +6309,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>210</v>
       </c>
@@ -6318,7 +6320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>211</v>
       </c>
@@ -6329,7 +6331,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>212</v>
       </c>
@@ -6349,7 +6351,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>213</v>
       </c>
@@ -6369,7 +6371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>214</v>
       </c>
@@ -6380,7 +6382,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>215</v>
       </c>
@@ -6400,7 +6402,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>216</v>
       </c>
@@ -6420,7 +6422,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>217</v>
       </c>
@@ -6440,7 +6442,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>218</v>
       </c>
@@ -6460,7 +6462,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>219</v>
       </c>
@@ -6471,7 +6473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>220</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>221</v>
       </c>
@@ -6511,7 +6513,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>222</v>
       </c>
@@ -6531,7 +6533,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>223</v>
       </c>
@@ -6551,7 +6553,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>224</v>
       </c>
@@ -6571,7 +6573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>225</v>
       </c>
@@ -6591,7 +6593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>226</v>
       </c>
@@ -6611,7 +6613,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>227</v>
       </c>
@@ -6631,7 +6633,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>228</v>
       </c>
@@ -6651,7 +6653,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>229</v>
       </c>
@@ -6671,7 +6673,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>230</v>
       </c>
@@ -6694,7 +6696,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>231</v>
       </c>
@@ -6717,7 +6719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>232</v>
       </c>
@@ -6740,7 +6742,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>233</v>
       </c>
@@ -6760,7 +6762,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>234</v>
       </c>
@@ -6780,7 +6782,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>235</v>
       </c>
@@ -6800,7 +6802,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>236</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>237</v>
       </c>
@@ -6840,7 +6842,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>238</v>
       </c>
@@ -6860,7 +6862,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>239</v>
       </c>
@@ -6880,7 +6882,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>240</v>
       </c>
@@ -6900,7 +6902,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>241</v>
       </c>
@@ -6920,7 +6922,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>242</v>
       </c>
@@ -6940,7 +6942,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>243</v>
       </c>
@@ -6960,7 +6962,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>244</v>
       </c>
@@ -6980,7 +6982,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>245</v>
       </c>
@@ -7000,7 +7002,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>246</v>
       </c>
@@ -7020,7 +7022,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>247</v>
       </c>
@@ -7037,7 +7039,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>251</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>252</v>
       </c>
@@ -7071,7 +7073,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>256</v>
       </c>
@@ -7088,7 +7090,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>257</v>
       </c>
@@ -7105,7 +7107,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>258</v>
       </c>
@@ -7122,7 +7124,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>259</v>
       </c>
@@ -7139,7 +7141,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>260</v>
       </c>
@@ -7156,7 +7158,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>261</v>
       </c>
@@ -7173,7 +7175,7 @@
         <v>742792117</v>
       </c>
     </row>
-    <row r="209" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>262</v>
       </c>
@@ -7187,7 +7189,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="210" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>264</v>
       </c>
@@ -7201,7 +7203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="211" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>265</v>
       </c>
@@ -7215,7 +7217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="212" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>266</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="213" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>267</v>
       </c>
@@ -7246,7 +7248,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="214" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>271</v>
       </c>
@@ -7260,7 +7262,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="215" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>275</v>
       </c>
@@ -7274,7 +7276,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>276</v>
       </c>
@@ -7288,7 +7290,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="217" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>277</v>
       </c>
@@ -7302,7 +7304,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="218" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>278</v>
       </c>
@@ -7316,7 +7318,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="219" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>279</v>
       </c>
@@ -7330,7 +7332,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>280</v>
       </c>
@@ -7347,7 +7349,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="221" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>285</v>
       </c>
@@ -7364,7 +7366,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>286</v>
       </c>
@@ -7381,7 +7383,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="223" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>287</v>
       </c>
@@ -7398,7 +7400,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>288</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="225" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>292</v>
       </c>
@@ -7432,7 +7434,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="226" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>296</v>
       </c>
@@ -7449,7 +7451,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="227" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>300</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="228" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>304</v>
       </c>
@@ -7483,7 +7485,7 @@
         <v>877591064</v>
       </c>
     </row>
-    <row r="229" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>307</v>
       </c>
@@ -7500,7 +7502,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="230" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>311</v>
       </c>
@@ -7517,7 +7519,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="231" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>312</v>
       </c>
@@ -7534,7 +7536,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="232" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>317</v>
       </c>
@@ -7551,7 +7553,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="233" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>318</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="234" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>322</v>
       </c>
@@ -7582,7 +7584,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="235" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>325</v>
       </c>
@@ -7599,7 +7601,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="236" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>329</v>
       </c>
@@ -7644,7 +7646,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="239" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>338</v>
       </c>
@@ -7661,7 +7663,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="240" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>343</v>
       </c>
@@ -7678,7 +7680,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>344</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>348</v>
       </c>
@@ -7712,7 +7714,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>349</v>
       </c>
@@ -7729,7 +7731,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>350</v>
       </c>
@@ -7746,7 +7748,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>351</v>
       </c>
@@ -7763,7 +7765,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>354</v>
       </c>
@@ -7780,7 +7782,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>355</v>
       </c>
@@ -7797,7 +7799,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>356</v>
       </c>
@@ -7814,7 +7816,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>357</v>
       </c>
@@ -7828,7 +7830,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>359</v>
       </c>
@@ -7845,7 +7847,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>361</v>
       </c>
@@ -7859,7 +7861,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>364</v>
       </c>
@@ -7873,7 +7875,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>365</v>
       </c>
@@ -7887,7 +7889,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>366</v>
       </c>
@@ -7901,7 +7903,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>367</v>
       </c>
@@ -7918,7 +7920,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>368</v>
       </c>
@@ -7935,7 +7937,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>369</v>
       </c>
@@ -7952,7 +7954,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>370</v>
       </c>
@@ -7969,7 +7971,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>371</v>
       </c>
@@ -7986,7 +7988,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>372</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>373</v>
       </c>
@@ -8020,7 +8022,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>374</v>
       </c>
@@ -8037,7 +8039,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>375</v>
       </c>
@@ -8051,7 +8053,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>376</v>
       </c>
@@ -8065,7 +8067,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>377</v>
       </c>
@@ -8079,7 +8081,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>378</v>
       </c>
@@ -8093,7 +8095,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>379</v>
       </c>
@@ -8110,7 +8112,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>383</v>
       </c>
@@ -8127,7 +8129,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>384</v>
       </c>
@@ -8141,7 +8143,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>385</v>
       </c>
@@ -8155,7 +8157,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>386</v>
       </c>
@@ -8172,7 +8174,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>387</v>
       </c>
@@ -8189,7 +8191,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>388</v>
       </c>
@@ -8200,13 +8202,13 @@
         <v>346</v>
       </c>
       <c r="G273" t="s">
-        <v>390</v>
+        <v>794</v>
       </c>
       <c r="I273">
         <v>0.1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>391</v>
       </c>
@@ -8223,7 +8225,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>392</v>
       </c>
@@ -8237,7 +8239,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>395</v>
       </c>
@@ -8254,7 +8256,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>396</v>
       </c>
@@ -8268,7 +8270,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>399</v>
       </c>
@@ -8285,7 +8287,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>402</v>
       </c>
@@ -8302,7 +8304,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>403</v>
       </c>
@@ -8319,7 +8321,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>404</v>
       </c>
@@ -8333,7 +8335,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>405</v>
       </c>
@@ -8350,7 +8352,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>408</v>
       </c>
@@ -8367,7 +8369,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>410</v>
       </c>
@@ -8384,7 +8386,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>411</v>
       </c>
@@ -8401,7 +8403,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>412</v>
       </c>
@@ -8415,7 +8417,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>413</v>
       </c>
@@ -8429,7 +8431,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>414</v>
       </c>
@@ -8443,7 +8445,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>415</v>
       </c>
@@ -8457,7 +8459,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>416</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>417</v>
       </c>
@@ -8488,7 +8490,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>420</v>
       </c>
@@ -8505,7 +8507,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>421</v>
       </c>
@@ -8522,7 +8524,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>424</v>
       </c>
@@ -8539,7 +8541,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>425</v>
       </c>
@@ -8556,7 +8558,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>426</v>
       </c>
@@ -8573,7 +8575,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>428</v>
       </c>
@@ -8590,7 +8592,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>429</v>
       </c>
@@ -8607,7 +8609,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>430</v>
       </c>
@@ -8624,7 +8626,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>431</v>
       </c>
@@ -8641,7 +8643,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>432</v>
       </c>
@@ -8658,7 +8660,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>433</v>
       </c>
@@ -8675,7 +8677,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>434</v>
       </c>
@@ -8692,7 +8694,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>435</v>
       </c>
@@ -8703,7 +8705,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>436</v>
       </c>
@@ -8720,7 +8722,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>437</v>
       </c>
@@ -8737,7 +8739,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>438</v>
       </c>
@@ -8754,7 +8756,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>439</v>
       </c>
@@ -8771,7 +8773,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>440</v>
       </c>
@@ -8788,7 +8790,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>441</v>
       </c>
@@ -8805,7 +8807,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>442</v>
       </c>
@@ -8822,7 +8824,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>443</v>
       </c>
@@ -8839,7 +8841,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>444</v>
       </c>
@@ -8850,7 +8852,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>445</v>
       </c>
@@ -8861,7 +8863,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>446</v>
       </c>
@@ -8878,7 +8880,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>447</v>
       </c>
@@ -8895,7 +8897,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>448</v>
       </c>
@@ -8912,7 +8914,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>449</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>450</v>
       </c>
@@ -8946,7 +8948,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>452</v>
       </c>
@@ -8963,7 +8965,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>453</v>
       </c>
@@ -8980,7 +8982,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>454</v>
       </c>
@@ -8997,7 +8999,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>455</v>
       </c>
@@ -9014,7 +9016,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>456</v>
       </c>
@@ -9031,7 +9033,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>457</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>458</v>
       </c>
@@ -9065,7 +9067,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>459</v>
       </c>
@@ -9082,7 +9084,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>460</v>
       </c>
@@ -9096,7 +9098,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>461</v>
       </c>
@@ -9110,7 +9112,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>462</v>
       </c>
@@ -9127,7 +9129,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>463</v>
       </c>
@@ -9144,7 +9146,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>464</v>
       </c>
@@ -9161,7 +9163,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>465</v>
       </c>
@@ -9178,7 +9180,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>466</v>
       </c>
@@ -9195,7 +9197,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>467</v>
       </c>
@@ -9212,7 +9214,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>468</v>
       </c>
@@ -9229,7 +9231,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>469</v>
       </c>
@@ -9246,7 +9248,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>470</v>
       </c>
@@ -9263,7 +9265,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>471</v>
       </c>
@@ -9280,7 +9282,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>472</v>
       </c>
@@ -9297,7 +9299,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>473</v>
       </c>
@@ -9314,7 +9316,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>474</v>
       </c>
@@ -9331,7 +9333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>475</v>
       </c>
@@ -9348,7 +9350,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>476</v>
       </c>
@@ -9365,7 +9367,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>477</v>
       </c>
@@ -9382,7 +9384,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>478</v>
       </c>
@@ -9399,7 +9401,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>479</v>
       </c>
@@ -9416,7 +9418,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>480</v>
       </c>
@@ -9433,7 +9435,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>481</v>
       </c>
@@ -9447,7 +9449,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>482</v>
       </c>
@@ -9461,7 +9463,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>483</v>
       </c>
@@ -9478,7 +9480,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>484</v>
       </c>
@@ -9495,7 +9497,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>485</v>
       </c>
@@ -9512,7 +9514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>486</v>
       </c>
@@ -9529,7 +9531,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>487</v>
       </c>
@@ -9546,7 +9548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>488</v>
       </c>
@@ -9563,7 +9565,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>489</v>
       </c>
@@ -9580,7 +9582,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>490</v>
       </c>
@@ -9597,7 +9599,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>491</v>
       </c>
@@ -9614,7 +9616,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>492</v>
       </c>
@@ -9631,7 +9633,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>493</v>
       </c>
@@ -9648,7 +9650,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>494</v>
       </c>
@@ -9665,7 +9667,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>495</v>
       </c>
@@ -9682,7 +9684,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>496</v>
       </c>
@@ -9699,7 +9701,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>497</v>
       </c>
@@ -9716,7 +9718,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>498</v>
       </c>
@@ -9733,7 +9735,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>499</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>500</v>
       </c>
@@ -9767,7 +9769,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>501</v>
       </c>
@@ -9784,7 +9786,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>502</v>
       </c>
@@ -9801,7 +9803,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>503</v>
       </c>
@@ -9818,7 +9820,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>504</v>
       </c>
@@ -9835,7 +9837,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>505</v>
       </c>
@@ -9852,7 +9854,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>506</v>
       </c>
@@ -9869,7 +9871,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="375" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>507</v>
       </c>
@@ -9886,7 +9888,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>508</v>
       </c>
@@ -9903,7 +9905,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>509</v>
       </c>
@@ -9920,7 +9922,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>510</v>
       </c>
@@ -9937,7 +9939,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>511</v>
       </c>
@@ -9954,7 +9956,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>512</v>
       </c>
@@ -9971,7 +9973,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>513</v>
       </c>
@@ -9988,7 +9990,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>514</v>
       </c>
@@ -10005,7 +10007,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>515</v>
       </c>
@@ -10022,7 +10024,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>516</v>
       </c>
@@ -10039,7 +10041,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>517</v>
       </c>
@@ -10056,7 +10058,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>518</v>
       </c>
@@ -10073,7 +10075,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>519</v>
       </c>
@@ -10090,7 +10092,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>520</v>
       </c>
@@ -10107,7 +10109,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>521</v>
       </c>
@@ -10124,7 +10126,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>522</v>
       </c>
@@ -10141,7 +10143,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>525</v>
       </c>
@@ -10158,7 +10160,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>528</v>
       </c>
@@ -10175,7 +10177,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>529</v>
       </c>
@@ -10192,7 +10194,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>532</v>
       </c>
@@ -10209,7 +10211,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>535</v>
       </c>
@@ -10226,7 +10228,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>538</v>
       </c>
@@ -10243,7 +10245,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>541</v>
       </c>
@@ -10260,7 +10262,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>542</v>
       </c>
@@ -10277,7 +10279,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>543</v>
       </c>
@@ -10294,7 +10296,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>544</v>
       </c>
@@ -10308,7 +10310,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>545</v>
       </c>
@@ -10325,7 +10327,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>548</v>
       </c>
@@ -10342,7 +10344,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>549</v>
       </c>
@@ -10359,7 +10361,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>550</v>
       </c>
@@ -10376,7 +10378,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>553</v>
       </c>
@@ -10393,7 +10395,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>554</v>
       </c>
@@ -10410,7 +10412,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>555</v>
       </c>
@@ -10427,7 +10429,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>556</v>
       </c>
@@ -10444,7 +10446,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>557</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>558</v>
       </c>
@@ -10478,7 +10480,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>559</v>
       </c>
@@ -10495,7 +10497,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>560</v>
       </c>
@@ -10512,7 +10514,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>561</v>
       </c>
@@ -10529,7 +10531,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>562</v>
       </c>
@@ -10546,7 +10548,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>563</v>
       </c>
@@ -10563,7 +10565,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>564</v>
       </c>
@@ -10580,7 +10582,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>565</v>
       </c>
@@ -10594,7 +10596,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>566</v>
       </c>
@@ -10611,7 +10613,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>567</v>
       </c>
@@ -10628,7 +10630,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>568</v>
       </c>
@@ -10645,7 +10647,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>569</v>
       </c>
@@ -10662,7 +10664,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>570</v>
       </c>
@@ -10679,7 +10681,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>571</v>
       </c>
@@ -10696,7 +10698,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>572</v>
       </c>
@@ -10713,7 +10715,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>573</v>
       </c>
@@ -10730,7 +10732,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>574</v>
       </c>
@@ -10747,7 +10749,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>575</v>
       </c>
@@ -10764,7 +10766,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>576</v>
       </c>
@@ -10781,7 +10783,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>577</v>
       </c>
@@ -10798,7 +10800,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>578</v>
       </c>
@@ -10815,7 +10817,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>579</v>
       </c>
@@ -10832,7 +10834,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>580</v>
       </c>
@@ -10849,7 +10851,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>581</v>
       </c>
@@ -10866,7 +10868,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>582</v>
       </c>
@@ -10880,7 +10882,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>583</v>
       </c>
@@ -10897,7 +10899,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>584</v>
       </c>
@@ -10914,7 +10916,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>585</v>
       </c>
@@ -10931,7 +10933,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>586</v>
       </c>
@@ -10948,7 +10950,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>587</v>
       </c>
@@ -10965,7 +10967,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>588</v>
       </c>
@@ -10982,7 +10984,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>589</v>
       </c>
@@ -10999,7 +11001,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>590</v>
       </c>
@@ -11016,7 +11018,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="443" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>591</v>
       </c>
@@ -11033,7 +11035,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>592</v>
       </c>
@@ -11050,7 +11052,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="445" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>593</v>
       </c>
@@ -11067,7 +11069,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="446" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>594</v>
       </c>
@@ -11084,7 +11086,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="447" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>595</v>
       </c>
@@ -11101,7 +11103,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>596</v>
       </c>
@@ -11118,7 +11120,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>597</v>
       </c>
@@ -11135,7 +11137,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>598</v>
       </c>
@@ -11152,7 +11154,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>599</v>
       </c>
@@ -11166,7 +11168,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>600</v>
       </c>
@@ -11183,7 +11185,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>601</v>
       </c>
@@ -11200,7 +11202,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>602</v>
       </c>
@@ -11217,7 +11219,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>603</v>
       </c>
@@ -11234,7 +11236,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>604</v>
       </c>
@@ -11251,7 +11253,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>605</v>
       </c>
@@ -11268,7 +11270,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>606</v>
       </c>
@@ -11285,7 +11287,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>607</v>
       </c>
@@ -11302,7 +11304,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>608</v>
       </c>
@@ -11319,7 +11321,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>609</v>
       </c>
@@ -11336,7 +11338,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>610</v>
       </c>
@@ -11353,7 +11355,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>611</v>
       </c>
@@ -11370,7 +11372,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>612</v>
       </c>
@@ -11387,7 +11389,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="465" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>613</v>
       </c>
@@ -11404,7 +11406,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="466" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>614</v>
       </c>
@@ -11421,7 +11423,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="467" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>615</v>
       </c>
@@ -11438,7 +11440,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="468" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>616</v>
       </c>
@@ -11452,7 +11454,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="469" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>617</v>
       </c>
@@ -11469,7 +11471,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="470" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>618</v>
       </c>
@@ -11486,7 +11488,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>619</v>
       </c>
@@ -11503,7 +11505,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>620</v>
       </c>
@@ -11520,7 +11522,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>621</v>
       </c>
@@ -11537,7 +11539,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>622</v>
       </c>
@@ -11554,7 +11556,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>623</v>
       </c>
@@ -11571,7 +11573,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>624</v>
       </c>
@@ -11588,7 +11590,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>625</v>
       </c>
@@ -11605,7 +11607,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="478" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>626</v>
       </c>
@@ -11622,7 +11624,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="479" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>627</v>
       </c>
@@ -11639,7 +11641,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="480" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>628</v>
       </c>
@@ -11656,7 +11658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="481" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>629</v>
       </c>
@@ -11673,7 +11675,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="482" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>630</v>
       </c>
@@ -11690,7 +11692,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="483" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>631</v>
       </c>
@@ -11707,7 +11709,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="484" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>632</v>
       </c>
@@ -11724,7 +11726,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="485" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>633</v>
       </c>
@@ -11738,7 +11740,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="486" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>634</v>
       </c>
@@ -11755,7 +11757,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="487" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>635</v>
       </c>
@@ -11772,7 +11774,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="488" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>636</v>
       </c>
@@ -11789,7 +11791,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="489" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>637</v>
       </c>
@@ -11806,7 +11808,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>638</v>
       </c>
@@ -11823,7 +11825,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>639</v>
       </c>
@@ -11840,7 +11842,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>640</v>
       </c>
@@ -11854,7 +11856,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>641</v>
       </c>
@@ -11868,7 +11870,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>642</v>
       </c>
@@ -11885,7 +11887,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>643</v>
       </c>
@@ -11902,7 +11904,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="496" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>644</v>
       </c>
@@ -11919,7 +11921,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="497" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>645</v>
       </c>
@@ -11936,7 +11938,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="498" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>646</v>
       </c>
@@ -11950,7 +11952,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>647</v>
       </c>
@@ -11964,7 +11966,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>648</v>
       </c>
@@ -11978,7 +11980,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>649</v>
       </c>
@@ -11995,7 +11997,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>650</v>
       </c>
@@ -12006,7 +12008,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>651</v>
       </c>
@@ -12017,7 +12019,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="504" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>652</v>
       </c>
@@ -12028,7 +12030,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="505" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>653</v>
       </c>
@@ -12039,7 +12041,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="506" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>654</v>
       </c>
@@ -12053,7 +12055,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>655</v>
       </c>
@@ -12067,7 +12069,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="508" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>656</v>
       </c>
@@ -12081,7 +12083,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="509" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>657</v>
       </c>
@@ -12095,7 +12097,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>658</v>
       </c>
@@ -12106,7 +12108,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>659</v>
       </c>
@@ -12117,7 +12119,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>660</v>
       </c>
@@ -12128,7 +12130,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>661</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>662</v>
       </c>
@@ -12156,7 +12158,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>663</v>
       </c>
@@ -12173,7 +12175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>664</v>
       </c>
@@ -12187,7 +12189,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>665</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>666</v>
       </c>
@@ -12218,7 +12220,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>667</v>
       </c>
@@ -12235,7 +12237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="520" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>668</v>
       </c>
@@ -12246,13 +12248,13 @@
         <v>346</v>
       </c>
       <c r="G520" t="s">
-        <v>390</v>
+        <v>794</v>
       </c>
       <c r="I520">
         <v>0.1</v>
       </c>
     </row>
-    <row r="521" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>669</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="522" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>670</v>
       </c>
@@ -12283,7 +12285,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="523" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>671</v>
       </c>
@@ -12300,7 +12302,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="524" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>673</v>
       </c>
@@ -12317,7 +12319,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="525" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>674</v>
       </c>
@@ -12331,7 +12333,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="526" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>675</v>
       </c>
@@ -12348,7 +12350,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="527" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>676</v>
       </c>
@@ -12365,7 +12367,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="528" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>681</v>
       </c>
@@ -12382,7 +12384,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="529" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>682</v>
       </c>
@@ -12399,7 +12401,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="530" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>683</v>
       </c>
@@ -12416,7 +12418,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="531" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>684</v>
       </c>
@@ -12430,7 +12432,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="532" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>688</v>
       </c>
@@ -12447,7 +12449,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="533" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>689</v>
       </c>
@@ -12464,7 +12466,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="534" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>690</v>
       </c>
@@ -12481,7 +12483,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="535" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>691</v>
       </c>
@@ -12498,7 +12500,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="536" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>692</v>
       </c>
@@ -12512,7 +12514,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="537" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>695</v>
       </c>
@@ -12526,7 +12528,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="538" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>696</v>
       </c>
@@ -12543,7 +12545,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="539" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>701</v>
       </c>
@@ -12557,7 +12559,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="540" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>705</v>
       </c>
@@ -12574,7 +12576,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="541" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>710</v>
       </c>
@@ -12591,7 +12593,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="542" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>713</v>
       </c>
@@ -12608,7 +12610,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="543" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>718</v>
       </c>
@@ -12622,7 +12624,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="544" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>721</v>
       </c>
@@ -12639,7 +12641,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="545" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>724</v>
       </c>
@@ -12656,7 +12658,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="546" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>729</v>
       </c>
@@ -12673,7 +12675,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="547" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>732</v>
       </c>
@@ -12690,7 +12692,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="548" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>736</v>
       </c>
@@ -12707,7 +12709,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="549" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>741</v>
       </c>
@@ -12721,7 +12723,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="550" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>744</v>
       </c>
@@ -12738,7 +12740,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="551" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>748</v>
       </c>
@@ -12755,7 +12757,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="552" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>749</v>
       </c>
@@ -12769,7 +12771,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="553" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>753</v>
       </c>
@@ -12783,7 +12785,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="554" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>754</v>
       </c>
@@ -12797,7 +12799,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="555" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>757</v>
       </c>
@@ -12814,7 +12816,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="556" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>762</v>
       </c>
@@ -12828,7 +12830,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="557" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>763</v>
       </c>
@@ -12845,7 +12847,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="558" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>764</v>
       </c>
@@ -12859,7 +12861,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="559" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>765</v>
       </c>
@@ -12876,7 +12878,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="560" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>766</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="561" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>767</v>
       </c>
@@ -12907,7 +12909,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="562" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>768</v>
       </c>
@@ -12921,7 +12923,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="563" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>770</v>
       </c>
@@ -12935,7 +12937,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="564" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>774</v>
       </c>
@@ -12952,7 +12954,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="565" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>775</v>
       </c>
@@ -12966,7 +12968,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="566" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>776</v>
       </c>
@@ -12980,7 +12982,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="567" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>777</v>
       </c>
@@ -12997,7 +12999,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="568" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>778</v>
       </c>
@@ -13011,7 +13013,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="569" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>779</v>
       </c>
@@ -13025,7 +13027,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="570" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>780</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="571" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>781</v>
       </c>
@@ -13056,7 +13058,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="572" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>782</v>
       </c>
@@ -13070,7 +13072,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="573" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>783</v>
       </c>
@@ -13087,7 +13089,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="574" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>784</v>
       </c>
@@ -13101,7 +13103,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="575" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>785</v>
       </c>
@@ -13115,7 +13117,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="576" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>786</v>
       </c>
@@ -13132,7 +13134,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="577" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>787</v>
       </c>
@@ -13146,7 +13148,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="578" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>788</v>
       </c>
@@ -13160,7 +13162,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="579" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>789</v>
       </c>
@@ -13177,7 +13179,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="580" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>790</v>
       </c>
@@ -13191,7 +13193,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="581" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>791</v>
       </c>
@@ -13205,7 +13207,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="582" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>792</v>
       </c>
@@ -13219,7 +13221,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="583" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>793</v>
       </c>
@@ -13237,13 +13239,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A5:I583" xr:uid="{9841950A-4761-A244-87D6-72F2D9EE9335}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="BTE-040-02-F-D-A"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A5:I583" xr:uid="{9841950A-4761-A244-87D6-72F2D9EE9335}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>